--- a/tables/SC MCP Table.xlsx
+++ b/tables/SC MCP Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewpierson/Desktop/Heloderma Spatial/Heloderma Spatial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewpierson/Library/Containers/com.microsoft.Excel/Data/Desktop/Heloderma Spatial/Heloderma Spatial/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A15DA6-68DA-744A-9315-53DC44A328B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2005D552-7E6B-2942-9802-F74B8DAFE0B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="2000" windowWidth="11140" windowHeight="11860" xr2:uid="{D8C11703-666A-0746-9557-BEC5FDB1CAD0}"/>
   </bookViews>
@@ -133,7 +133,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Yearly home range estimates (ha.) for Stone Canyon using 100% and 95% MCPs. Estimates by individual for each year tracked. Home range ofF252 for 2013 was not estimated due to insufficient sample size.  </t>
+      <t xml:space="preserve"> Yearly home range estimates (ha.) for Stone Canyon using 100% and 95% MCPs. Estimates by individual for each year tracked. Home range of F252 for 2013 was not estimated due to insufficient sample size.  </t>
     </r>
   </si>
 </sst>
@@ -196,12 +196,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -222,6 +216,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,1328 +540,1328 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="22.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F2" s="6"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2007</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>3.37</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>18</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>3.37</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
         <v>2.5099999999999998</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>8</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>5.05</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>20</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>3.49</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <v>10.23</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>22</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>5.56</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>13.71</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>16</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>8.5500000000000007</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>12.51</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>13</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>12.51</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>4.66</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>15</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>3.87</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>14</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>2008</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
         <v>4.97</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>53</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <v>3.47</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="C14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
         <v>11.96</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>52</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <v>9.3800000000000008</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="C15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
         <v>4.07</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>16</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>1.58</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
         <v>5.98</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>15</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <v>5.75</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="C17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
         <v>9.73</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>54</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>7.55</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
         <v>11.29</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>51</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>9.9499999999999993</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>25.01</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>58</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <v>20.23</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>2009</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="C21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
         <v>7.45</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>64</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <v>7.25</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="7">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
         <v>11.46</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>52</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <v>8.2799999999999994</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="C23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
         <v>6.21</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>62</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <v>5.47</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="7">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
         <v>6.09</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <v>35</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <v>5.68</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="C25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
         <v>17.899999999999999</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>50</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="7">
         <v>14.04</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="7">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
         <v>7.48</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>62</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="7">
         <v>5.83</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="C27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
         <v>12.8</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <v>71</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="7">
         <v>12.12</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
         <v>7.89</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <v>71</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="7">
         <v>1.73</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="7">
         <v>22.62</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="7">
         <v>18</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="7">
         <v>16.37</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="7">
         <v>1.91</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="7">
         <v>69</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="7">
         <v>1.91</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="7">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="C31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
         <v>9.94</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="7">
         <v>20</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <v>8.49</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="7">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>2010</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9">
+      <c r="C33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
         <v>9.65</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="7">
         <v>44</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="C34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
         <v>6.32</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <v>45</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="7">
         <v>5.26</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9">
+      <c r="C35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
         <v>16.649999999999999</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="7">
         <v>36</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <v>14.75</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="7">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
         <v>5.36</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <v>34</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="7">
         <v>5.23</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="9">
+      <c r="C37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
         <v>7.38</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="7">
         <v>27</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="7">
         <v>3.01</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="9">
+      <c r="C38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
         <v>35.81</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="7">
         <v>50</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="7">
         <v>12.16</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="7">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9">
+      <c r="C39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
         <v>28.96</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="7">
         <v>52</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <v>16.22</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="C40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7">
         <v>4.37</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="7">
         <v>9</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="7">
         <v>1.41</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="7">
         <v>20.46</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="7">
         <v>26</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="7">
         <v>14.41</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="7">
         <v>17.46</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="7">
         <v>31</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="7">
         <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="7">
         <v>13.85</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="7">
         <v>30</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="7">
         <v>10.75</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="7">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>2011</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="9">
+      <c r="C45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
         <v>5.91</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="7">
         <v>22</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="7">
         <v>3.3</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="9">
+      <c r="C46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="7">
         <v>4.8</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="7">
         <v>33</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="7">
         <v>4.28</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="9">
+      <c r="C47" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7">
         <v>19.440000000000001</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="7">
         <v>24</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="7">
         <v>12.9</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="9">
+      <c r="C48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7">
         <v>8.35</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="7">
         <v>28</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="7">
         <v>7.66</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="9">
+      <c r="C49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7">
         <v>6.61</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="7">
         <v>22</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="7">
         <v>5.66</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="9">
+      <c r="C50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="7">
         <v>3.09</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="7">
         <v>17</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="7">
         <v>1.6</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="9">
+      <c r="C51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7">
         <v>11.93</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="7">
         <v>23</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="7">
         <v>10.95</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="9">
+      <c r="C52" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7">
         <v>5.72</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="7">
         <v>5</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="7">
         <v>0.66</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="7">
         <v>4.4800000000000004</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="7">
         <v>13</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="7">
         <v>3.84</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="7">
         <v>11.47</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="7">
         <v>16</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="7">
         <v>11.47</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="7">
         <v>5.85</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="7">
         <v>16</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="7">
         <v>5.59</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="A56" s="2">
         <v>2012</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="9">
+      <c r="C57" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7">
         <v>10.17</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="7">
         <v>54</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="7">
         <v>7.15</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="9">
+      <c r="C58" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="7">
         <v>2.06</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="7">
         <v>13</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="7">
         <v>1.36</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="9">
+      <c r="C59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7">
         <v>17.64</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="7">
         <v>52</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="7">
         <v>16.75</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="9">
+      <c r="C60" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7">
         <v>5.19</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="7">
         <v>53</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="7">
         <v>3.63</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="9">
+      <c r="C61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7">
         <v>10.34</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="7">
         <v>52</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="7">
         <v>10.3</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="7">
         <v>4.42</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="7">
         <v>13</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="7">
         <v>3.77</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="7">
         <v>11.04</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="7">
         <v>21</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="7">
         <v>9.85</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="7">
         <v>8.2100000000000009</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="7">
         <v>13</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="7">
         <v>5.39</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="A65" s="2">
         <v>2013</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="9">
+      <c r="C66" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="7">
         <v>7</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="9">
+      <c r="C67" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7">
         <v>0.31</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="7">
         <v>6</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="7">
         <v>0</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="9" t="s">
+      <c r="C68" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="11" t="s">
+      <c r="A69" s="5"/>
+      <c r="B69" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="11">
+      <c r="C69" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="9">
         <v>0.13</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="9">
         <v>6</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="9">
         <v>0</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="9">
         <v>5</v>
       </c>
     </row>
